--- a/doc/dialog sources/�������.xlsx
+++ b/doc/dialog sources/�������.xlsx
@@ -746,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>21</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>24</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>31</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>61</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>13</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>33</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>34</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
@@ -1125,18 +1125,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>36</v>
       </c>
       <c r="C47">
         <v>-1</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>17</v>
       </c>

--- a/doc/dialog sources/�������.xlsx
+++ b/doc/dialog sources/�������.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <r>
       <t>*</t>
@@ -474,9 +474,6 @@
   </si>
   <si>
     <t>Конечно-конечно. К тому же, мне надо будет выбрать паек посытнее. Мне нужно идти.</t>
-  </si>
-  <si>
-    <t>ССОРА</t>
   </si>
   <si>
     <t>Хм…. Это все хорошо, но мне хотелось бы еще кое-что обсудить.</t>
@@ -840,13 +837,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -1455,16 +1455,16 @@
       <c r="C76">
         <v>28</v>
       </c>
+      <c r="D76" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77">
         <v>4</v>
-      </c>
-      <c r="D77" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>65</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>30</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>67</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>71</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>68</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>32</v>
       </c>
@@ -1539,18 +1539,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>70</v>
       </c>
       <c r="C87">
         <v>-1</v>
       </c>
-      <c r="D87" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>33</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>72</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>30</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>70</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>27</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>76</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>77</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>78</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>81</v>
       </c>
